--- a/exp_data/Sgro2015DataFormattedforPython.xlsx
+++ b/exp_data/Sgro2015DataFormattedforPython.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellin\Dropbox\AACP Science\Dicty model review drafts\figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellin\Documents\GitHub\dictymodels\exp_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80FB9FA-BBCE-4636-859C-46E4FD448DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADC442D-7E26-4581-8BC4-E800BD193BA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="3855" windowWidth="15795" windowHeight="11835" activeTab="3" xr2:uid="{2BC0D28C-05FA-4CCB-8587-8E106C920713}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" activeTab="3" xr2:uid="{2BC0D28C-05FA-4CCB-8587-8E106C920713}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure1" sheetId="2" r:id="rId1"/>
     <sheet name="Figure3" sheetId="1" r:id="rId2"/>
-    <sheet name="Figure4" sheetId="3" r:id="rId3"/>
-    <sheet name="Figure4heatmap" sheetId="6" r:id="rId4"/>
-    <sheet name="Figure5" sheetId="4" r:id="rId5"/>
-    <sheet name="Figure6" sheetId="5" r:id="rId6"/>
+    <sheet name="Figure4traces" sheetId="3" r:id="rId3"/>
+    <sheet name="Figure4PeriodPkWdth" sheetId="7" r:id="rId4"/>
+    <sheet name="Figure4heatmap" sheetId="6" r:id="rId5"/>
+    <sheet name="Figure5" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure6" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Ramp Input (nM cAMP)</t>
   </si>
@@ -123,9 +124,6 @@
   </si>
   <si>
     <t>High External cAMP Mean Trace</t>
-  </si>
-  <si>
-    <t>entrainment quality</t>
   </si>
   <si>
     <t>Period(min)</t>
@@ -25391,11 +25389,75 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D30FC5-C4C1-4C67-8CAC-603421F32AA5}">
-  <dimension ref="A2:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CBC44F-0563-4839-9C3D-554BD4911E09}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I3" sqref="I3:M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D30FC5-C4C1-4C67-8CAC-603421F32AA5}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25403,127 +25465,102 @@
     <col min="1" max="1" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
         <v>0.39794600000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
         <v>0.59831199999999995</v>
       </c>
-      <c r="E5">
+      <c r="D2" s="4">
         <v>0.84006700000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
         <v>0.32502500000000001</v>
       </c>
-      <c r="D6">
+      <c r="C3" s="4">
         <v>0.639795</v>
       </c>
-      <c r="E6">
+      <c r="D3" s="4">
         <v>0.92124099999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>0.38343100000000002</v>
       </c>
-      <c r="C7">
+      <c r="B4" s="4">
         <v>0.65676199999999996</v>
       </c>
-      <c r="D7">
+      <c r="C4" s="4">
         <v>0.93585200000000002</v>
       </c>
-      <c r="E7">
+      <c r="D4" s="4">
         <v>0.83198899999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>0.74418899999999999</v>
       </c>
-      <c r="C8">
+      <c r="B5" s="4">
         <v>0.87466999999999995</v>
       </c>
-      <c r="D8">
+      <c r="C5" s="4">
         <v>0.88067099999999998</v>
       </c>
-      <c r="E8">
+      <c r="D5" s="4">
         <v>0.91442400000000001</v>
       </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971FCEF7-8A40-4DF6-B247-B9DC327C159F}">
   <dimension ref="A2:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25834,7 +25871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051E446B-8AB2-42E4-B2F5-2AF32433BD5B}">
   <dimension ref="A1:E481"/>
   <sheetViews>
